--- a/biology/Botanique/Adenanthos/Adenanthos.xlsx
+++ b/biology/Botanique/Adenanthos/Adenanthos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adenanthos est un genre d'arbustes et de petits arbres dans la famille des Protéacées. Il en existe 33 espèces dans le genre, dont 31 qui sont endémiques au sud-ouest de l'Australie-Occidentale.
 Selon les espèces, Adenanthos se présente en forme d'arbustes rampants ou d'arbustes érigés pouvant atteindre trois mètres de haut. Ils sont à feuillage persistant, avec de petites feuilles souvent velues. Les feuilles ont des glandes à nectar, généralement à la pointe de la feuille, mais chez certaines espèces sur toute la surface. Celles-ci attirent les fourmis, qui jouent un rôle dans la distribution des graines d’Adenanthos. Exceptionnellement, pour les membres de la famille des Proteaceae, Adenanthos n'a pas de grandes fleurs voyantes, les fleurs sont petites, ternes et souvent cachées dans le feuillage.
@@ -513,7 +525,9 @@
           <t>Listes des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adenanthos acanthophyllus
 Adenanthos apiculatus
